--- a/XLSX_comprobantes_done/mendizabal_vta_20240304.xlsx
+++ b/XLSX_comprobantes_done/mendizabal_vta_20240304.xlsx
@@ -512,13 +512,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A2" t="n">
+        <v>40379573</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>111703</v>
@@ -557,10 +555,8 @@
           <t>CR</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-6,00</t>
-        </is>
+      <c r="L2" t="n">
+        <v>-6</v>
       </c>
       <c r="M2" t="n">
         <v>981</v>
@@ -575,13 +571,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A3" t="n">
+        <v>40379573</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>111703</v>
@@ -620,10 +614,8 @@
           <t>CR</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-6,00</t>
-        </is>
+      <c r="L3" t="n">
+        <v>-6</v>
       </c>
       <c r="M3" t="n">
         <v>981</v>
@@ -638,13 +630,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A4" t="n">
+        <v>40379573</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
         <v>111703</v>
@@ -683,10 +673,8 @@
           <t>CR</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-3,00</t>
-        </is>
+      <c r="L4" t="n">
+        <v>-3</v>
       </c>
       <c r="M4" t="n">
         <v>981</v>
@@ -701,13 +689,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A5" t="n">
+        <v>40379573</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
         <v>134020</v>
@@ -746,10 +732,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>48,00</t>
-        </is>
+      <c r="L5" t="n">
+        <v>48</v>
       </c>
       <c r="M5" t="n">
         <v>3646</v>
@@ -758,13 +742,11 @@
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A6" t="n">
+        <v>40379573</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>134020</v>
@@ -803,10 +785,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>60,00</t>
-        </is>
+      <c r="L6" t="n">
+        <v>60</v>
       </c>
       <c r="M6" t="n">
         <v>3646</v>
@@ -815,13 +795,11 @@
       <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A7" t="n">
+        <v>40379573</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>134020</v>
@@ -860,10 +838,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>84,00</t>
-        </is>
+      <c r="L7" t="n">
+        <v>84</v>
       </c>
       <c r="M7" t="n">
         <v>3646</v>
@@ -872,13 +848,11 @@
       <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A8" t="n">
+        <v>40379573</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
         <v>134020</v>
@@ -917,10 +891,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>36,00</t>
-        </is>
+      <c r="L8" t="n">
+        <v>36</v>
       </c>
       <c r="M8" t="n">
         <v>3646</v>
@@ -929,13 +901,11 @@
       <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A9" t="n">
+        <v>40379573</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
         <v>134020</v>
@@ -974,10 +944,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>160,00</t>
-        </is>
+      <c r="L9" t="n">
+        <v>160</v>
       </c>
       <c r="M9" t="n">
         <v>3646</v>
@@ -986,13 +954,11 @@
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A10" t="n">
+        <v>40379573</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
         <v>134020</v>
@@ -1031,10 +997,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>36,00</t>
-        </is>
+      <c r="L10" t="n">
+        <v>36</v>
       </c>
       <c r="M10" t="n">
         <v>3646</v>
@@ -1043,13 +1007,11 @@
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A11" t="n">
+        <v>40379573</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
         <v>130009</v>
@@ -1088,10 +1050,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>288,00</t>
-        </is>
+      <c r="L11" t="n">
+        <v>288</v>
       </c>
       <c r="M11" t="n">
         <v>3652</v>
@@ -1100,13 +1060,11 @@
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A12" t="n">
+        <v>40379573</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
         <v>134162</v>
@@ -1145,10 +1103,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
+      <c r="L12" t="n">
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>4670</v>
@@ -1157,13 +1113,11 @@
       <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A13" t="n">
+        <v>40379573</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
         <v>134162</v>
@@ -1202,10 +1156,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
+      <c r="L13" t="n">
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>4670</v>
@@ -1214,13 +1166,11 @@
       <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A14" t="n">
+        <v>40379573</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
         <v>134162</v>
@@ -1259,10 +1209,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
+      <c r="L14" t="n">
+        <v>6</v>
       </c>
       <c r="M14" t="n">
         <v>4670</v>
@@ -1271,13 +1219,11 @@
       <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A15" t="n">
+        <v>40379573</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
         <v>134162</v>
@@ -1316,10 +1262,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
+      <c r="L15" t="n">
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>4670</v>
@@ -1328,13 +1272,11 @@
       <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A16" t="n">
+        <v>40379573</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
         <v>122676</v>
@@ -1373,10 +1315,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
+      <c r="L16" t="n">
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>4688</v>
@@ -1385,13 +1325,11 @@
       <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A17" t="n">
+        <v>40379573</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
         <v>122676</v>
@@ -1430,10 +1368,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
+      <c r="L17" t="n">
+        <v>12</v>
       </c>
       <c r="M17" t="n">
         <v>4688</v>
@@ -1488,10 +1424,8 @@
           <t>TotalUnidades</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>739,00</t>
-        </is>
+      <c r="B3" t="n">
+        <v>739</v>
       </c>
     </row>
   </sheetData>
